--- a/data/predictions/gender/divorce/leveled/leanrepublican.xlsx
+++ b/data/predictions/gender/divorce/leveled/leanrepublican.xlsx
@@ -823,7 +823,7 @@
         <v>2019</v>
       </c>
       <c r="C34">
-        <v>0.4977048625714263</v>
+        <v>0.3589636567816472</v>
       </c>
       <c r="D34">
         <v>0.2047047224819093</v>
@@ -837,7 +837,7 @@
         <v>2020</v>
       </c>
       <c r="C35">
-        <v>0.5152287573846732</v>
+        <v>0.4782657206675065</v>
       </c>
       <c r="D35">
         <v>0.2020569651544499</v>
@@ -851,7 +851,7 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.521017860134145</v>
+        <v>0.4717513769217371</v>
       </c>
       <c r="D36">
         <v>0.2019785548821244</v>
@@ -865,7 +865,7 @@
         <v>2022</v>
       </c>
       <c r="C37">
-        <v>0.5227354596169738</v>
+        <v>0.4242717027883769</v>
       </c>
       <c r="D37">
         <v>0.2017782456202898</v>
@@ -879,7 +879,7 @@
         <v>2023</v>
       </c>
       <c r="C38">
-        <v>0.5233251618839176</v>
+        <v>0.4267883919218858</v>
       </c>
       <c r="D38">
         <v>0.201583719681348</v>
@@ -893,7 +893,7 @@
         <v>2024</v>
       </c>
       <c r="C39">
-        <v>0.5236533201928291</v>
+        <v>0.4015758314825595</v>
       </c>
       <c r="D39">
         <v>0.2013889193609383</v>
